--- a/albb-salaries-2003.xlsx
+++ b/albb-salaries-2003.xlsx
@@ -1,30 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\youse\Desktop\Excel Practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D48332-F0CA-4ECD-A323-02EF8BD29BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C00603-1C14-4795-BA3D-1B958C45E0F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="albb-salaries-2003 Filter" sheetId="4" r:id="rId1"/>
-    <sheet name="Filtered Data" sheetId="5" r:id="rId2"/>
-    <sheet name="Pivot Table" sheetId="2" r:id="rId3"/>
-    <sheet name="Pivot Table 1" sheetId="3" r:id="rId4"/>
-    <sheet name="albb-salaries-2003" sheetId="1" r:id="rId5"/>
+    <sheet name="albb-salaries-2003 Text To colu" sheetId="4" r:id="rId1"/>
+    <sheet name="Filtered 3" sheetId="10" r:id="rId2"/>
+    <sheet name="Filtered Data" sheetId="5" r:id="rId3"/>
+    <sheet name="Pivot Table" sheetId="2" r:id="rId4"/>
+    <sheet name="Pivot Table 1" sheetId="3" r:id="rId5"/>
+    <sheet name="albb-salaries-2003" sheetId="1" r:id="rId6"/>
+    <sheet name="Filtered Data2" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'albb-salaries-2003 Filter'!$A$1:$F$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'albb-salaries-2003'!$A$1:$G$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'albb-salaries-2003 Text To colu'!$A$1:$F$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Filtered Data'!$A$1:$A$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3262" uniqueCount="992">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3301" uniqueCount="994">
   <si>
     <t>Team</t>
   </si>
@@ -3007,9 +3011,6 @@
     <t>What is the average salary for a pitcher on a California team? Round your answer to the nearest dollar. (Only Oakland and Anaheim are California teams)</t>
   </si>
   <si>
-    <t xml:space="preserve">3 we obtained this info using filtration </t>
-  </si>
-  <si>
     <t>What's the name of the player with the 5th highest salary? (Provide the first then the last name separated by a space)</t>
   </si>
   <si>
@@ -3017,6 +3018,15 @@
   </si>
   <si>
     <t>Make sure to check some problems solved in Pivot Table 1 and Pivot Table</t>
+  </si>
+  <si>
+    <t>optained using filtration from Filtered Data</t>
+  </si>
+  <si>
+    <t>3 we obtained this info using filtration from filtered data2</t>
+  </si>
+  <si>
+    <t>3 obtained from Filtered 3</t>
   </si>
 </sst>
 </file>
@@ -6900,11 +6910,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9298709-D07A-408F-85E8-8C67373BCAC8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I382"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E387" sqref="E387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6938,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>375</v>
       </c>
@@ -6958,7 +6969,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -6978,7 +6989,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -6998,7 +7009,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7018,7 +7029,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7038,7 +7049,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>156</v>
       </c>
@@ -7058,7 +7069,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>375</v>
       </c>
@@ -7078,7 +7089,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7098,7 +7109,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>375</v>
       </c>
@@ -7118,7 +7129,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7138,7 +7149,7 @@
         <v>12357143</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7158,7 +7169,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -7178,7 +7189,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>348</v>
       </c>
@@ -7198,7 +7209,7 @@
         <v>11666667</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -7218,7 +7229,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -7238,7 +7249,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -7258,7 +7269,7 @@
         <v>11428571</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>212</v>
       </c>
@@ -7278,7 +7289,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -7318,7 +7329,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -7338,7 +7349,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -7358,7 +7369,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>375</v>
       </c>
@@ -7378,7 +7389,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>375</v>
       </c>
@@ -7398,7 +7409,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>266</v>
       </c>
@@ -7418,7 +7429,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -7438,7 +7449,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -7458,7 +7469,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>266</v>
       </c>
@@ -7478,7 +7489,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -7498,7 +7509,7 @@
         <v>8166667</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -7518,7 +7529,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>239</v>
       </c>
@@ -7538,7 +7549,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>320</v>
       </c>
@@ -7558,7 +7569,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>320</v>
       </c>
@@ -7578,7 +7589,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
@@ -7618,7 +7629,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -7638,7 +7649,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>320</v>
       </c>
@@ -7658,7 +7669,7 @@
         <v>7416667</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -7678,7 +7689,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>40</v>
       </c>
@@ -7698,7 +7709,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>96</v>
       </c>
@@ -7718,7 +7729,7 @@
         <v>7166667</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>156</v>
       </c>
@@ -7738,7 +7749,7 @@
         <v>7030000</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -7758,7 +7769,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>375</v>
       </c>
@@ -7778,7 +7789,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>320</v>
       </c>
@@ -7798,7 +7809,7 @@
         <v>6875000</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -7818,7 +7829,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>293</v>
       </c>
@@ -7858,7 +7869,7 @@
         <v>6725000</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>320</v>
       </c>
@@ -7878,7 +7889,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>186</v>
       </c>
@@ -7898,7 +7909,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>156</v>
       </c>
@@ -7918,7 +7929,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>266</v>
       </c>
@@ -7938,7 +7949,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -7958,7 +7969,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>212</v>
       </c>
@@ -7978,7 +7989,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -7998,7 +8009,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>348</v>
       </c>
@@ -8018,7 +8029,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -8038,7 +8049,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -8058,7 +8069,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>96</v>
       </c>
@@ -8078,7 +8089,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>186</v>
       </c>
@@ -8098,7 +8109,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -8118,7 +8129,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -8138,7 +8149,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>96</v>
       </c>
@@ -8158,7 +8169,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>40</v>
       </c>
@@ -8178,7 +8189,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>128</v>
       </c>
@@ -8198,7 +8209,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>96</v>
       </c>
@@ -8218,7 +8229,7 @@
         <v>5125000</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>348</v>
       </c>
@@ -8238,7 +8249,7 @@
         <v>5125000</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>266</v>
       </c>
@@ -8258,7 +8269,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>266</v>
       </c>
@@ -8278,7 +8289,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -8298,7 +8309,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -8318,7 +8329,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>239</v>
       </c>
@@ -8338,7 +8349,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -8358,7 +8369,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>320</v>
       </c>
@@ -8378,7 +8389,7 @@
         <v>4666667</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>293</v>
       </c>
@@ -8398,7 +8409,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>375</v>
       </c>
@@ -8418,7 +8429,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>212</v>
       </c>
@@ -8438,7 +8449,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>40</v>
       </c>
@@ -8458,7 +8469,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>156</v>
       </c>
@@ -8478,7 +8489,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>266</v>
       </c>
@@ -8498,7 +8509,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>156</v>
       </c>
@@ -8518,7 +8529,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>266</v>
       </c>
@@ -8538,7 +8549,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -8558,7 +8569,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -8578,7 +8589,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>320</v>
       </c>
@@ -8598,7 +8609,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>68</v>
       </c>
@@ -8618,7 +8629,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>68</v>
       </c>
@@ -8638,7 +8649,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>320</v>
       </c>
@@ -8658,7 +8669,7 @@
         <v>3983333</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -8678,7 +8689,7 @@
         <v>3916667</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>128</v>
       </c>
@@ -8698,7 +8709,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -8718,7 +8729,7 @@
         <v>3875000</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>128</v>
       </c>
@@ -8738,7 +8749,7 @@
         <v>3825000</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>348</v>
       </c>
@@ -8758,7 +8769,7 @@
         <v>3675000</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>68</v>
       </c>
@@ -8778,7 +8789,7 @@
         <v>3625000</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>156</v>
       </c>
@@ -8798,7 +8809,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>320</v>
       </c>
@@ -8818,7 +8829,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>320</v>
       </c>
@@ -8838,7 +8849,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>156</v>
       </c>
@@ -8858,7 +8869,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>68</v>
       </c>
@@ -8878,7 +8889,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>239</v>
       </c>
@@ -8898,7 +8909,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>375</v>
       </c>
@@ -8918,7 +8929,7 @@
         <v>3366667</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>320</v>
       </c>
@@ -8938,7 +8949,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>375</v>
       </c>
@@ -8958,7 +8969,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>4</v>
       </c>
@@ -8978,7 +8989,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>348</v>
       </c>
@@ -8998,7 +9009,7 @@
         <v>3216667</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>293</v>
       </c>
@@ -9018,7 +9029,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>320</v>
       </c>
@@ -9038,7 +9049,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>156</v>
       </c>
@@ -9058,7 +9069,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>212</v>
       </c>
@@ -9078,7 +9089,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>156</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>68</v>
       </c>
@@ -9118,7 +9129,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>156</v>
       </c>
@@ -9138,7 +9149,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>239</v>
       </c>
@@ -9158,7 +9169,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>156</v>
       </c>
@@ -9178,7 +9189,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -9198,7 +9209,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>212</v>
       </c>
@@ -9218,7 +9229,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -9238,7 +9249,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>212</v>
       </c>
@@ -9258,7 +9269,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -9278,7 +9289,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>348</v>
       </c>
@@ -9298,7 +9309,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>348</v>
       </c>
@@ -9318,7 +9329,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>293</v>
       </c>
@@ -9338,7 +9349,7 @@
         <v>2625000</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>96</v>
       </c>
@@ -9358,7 +9369,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -9378,7 +9389,7 @@
         <v>2525000</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>4</v>
       </c>
@@ -9398,7 +9409,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>293</v>
       </c>
@@ -9418,7 +9429,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>375</v>
       </c>
@@ -9438,7 +9449,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>375</v>
       </c>
@@ -9458,7 +9469,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>320</v>
       </c>
@@ -9478,7 +9489,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -9498,7 +9509,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -9518,7 +9529,7 @@
         <v>2270000</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -9538,7 +9549,7 @@
         <v>2266667</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>128</v>
       </c>
@@ -9558,7 +9569,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>4</v>
       </c>
@@ -9578,7 +9589,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>348</v>
       </c>
@@ -9598,7 +9609,7 @@
         <v>2175000</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>293</v>
       </c>
@@ -9618,7 +9629,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>68</v>
       </c>
@@ -9638,7 +9649,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>68</v>
       </c>
@@ -9658,7 +9669,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -9678,7 +9689,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>212</v>
       </c>
@@ -9698,7 +9709,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>239</v>
       </c>
@@ -9718,7 +9729,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>348</v>
       </c>
@@ -9738,7 +9749,7 @@
         <v>1887500</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -9758,7 +9769,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>375</v>
       </c>
@@ -9778,7 +9789,7 @@
         <v>1837500</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>320</v>
       </c>
@@ -9798,7 +9809,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>348</v>
       </c>
@@ -9818,7 +9829,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>239</v>
       </c>
@@ -9838,7 +9849,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>156</v>
       </c>
@@ -9858,7 +9869,7 @@
         <v>1725000</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>68</v>
       </c>
@@ -9878,7 +9889,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>348</v>
       </c>
@@ -9898,7 +9909,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>293</v>
       </c>
@@ -9918,7 +9929,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>156</v>
       </c>
@@ -9938,7 +9949,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>96</v>
       </c>
@@ -9958,7 +9969,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -9978,7 +9989,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>375</v>
       </c>
@@ -9998,7 +10009,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>4</v>
       </c>
@@ -10018,7 +10029,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>40</v>
       </c>
@@ -10038,7 +10049,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>40</v>
       </c>
@@ -10058,7 +10069,7 @@
         <v>1425000</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>266</v>
       </c>
@@ -10078,7 +10089,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>375</v>
       </c>
@@ -10098,7 +10109,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>375</v>
       </c>
@@ -10118,7 +10129,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>68</v>
       </c>
@@ -10138,7 +10149,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>348</v>
       </c>
@@ -10158,7 +10169,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>156</v>
       </c>
@@ -10178,7 +10189,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>156</v>
       </c>
@@ -10198,7 +10209,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>96</v>
       </c>
@@ -10218,7 +10229,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>348</v>
       </c>
@@ -10238,7 +10249,7 @@
         <v>1065000</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>320</v>
       </c>
@@ -10258,7 +10269,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>40</v>
       </c>
@@ -10278,7 +10289,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>156</v>
       </c>
@@ -10298,7 +10309,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>375</v>
       </c>
@@ -10318,7 +10329,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>96</v>
       </c>
@@ -10338,7 +10349,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>156</v>
       </c>
@@ -10358,7 +10369,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>128</v>
       </c>
@@ -10378,7 +10389,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>348</v>
       </c>
@@ -10398,7 +10409,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>239</v>
       </c>
@@ -10418,7 +10429,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>128</v>
       </c>
@@ -10438,7 +10449,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>156</v>
       </c>
@@ -10458,7 +10469,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>40</v>
       </c>
@@ -10478,7 +10489,7 @@
         <v>925000</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>96</v>
       </c>
@@ -10498,7 +10509,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -10518,7 +10529,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>4</v>
       </c>
@@ -10538,7 +10549,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>375</v>
       </c>
@@ -10558,7 +10569,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>212</v>
       </c>
@@ -10578,7 +10589,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>128</v>
       </c>
@@ -10598,7 +10609,7 @@
         <v>845000</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>68</v>
       </c>
@@ -10618,7 +10629,7 @@
         <v>805000</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>128</v>
       </c>
@@ -10638,7 +10649,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>4</v>
       </c>
@@ -10658,7 +10669,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>212</v>
       </c>
@@ -10678,7 +10689,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>128</v>
       </c>
@@ -10698,7 +10709,7 @@
         <v>775000</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>156</v>
       </c>
@@ -10718,7 +10729,7 @@
         <v>762500</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +10749,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>375</v>
       </c>
@@ -10758,7 +10769,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>375</v>
       </c>
@@ -10778,7 +10789,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>320</v>
       </c>
@@ -10798,7 +10809,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>348</v>
       </c>
@@ -10818,7 +10829,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>375</v>
       </c>
@@ -10838,7 +10849,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>40</v>
       </c>
@@ -10858,7 +10869,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>266</v>
       </c>
@@ -10878,7 +10889,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>128</v>
       </c>
@@ -10898,7 +10909,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>128</v>
       </c>
@@ -10918,7 +10929,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>4</v>
       </c>
@@ -10938,7 +10949,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>266</v>
       </c>
@@ -10958,7 +10969,7 @@
         <v>675000</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>212</v>
       </c>
@@ -10978,7 +10989,7 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>68</v>
       </c>
@@ -11018,7 +11029,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>375</v>
       </c>
@@ -11038,7 +11049,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>96</v>
       </c>
@@ -11058,7 +11069,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>375</v>
       </c>
@@ -11078,7 +11089,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>96</v>
       </c>
@@ -11098,7 +11109,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>128</v>
       </c>
@@ -11118,7 +11129,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>266</v>
       </c>
@@ -11138,7 +11149,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>186</v>
       </c>
@@ -11158,7 +11169,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>128</v>
       </c>
@@ -11178,7 +11189,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>266</v>
       </c>
@@ -11198,7 +11209,7 @@
         <v>575000</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>4</v>
       </c>
@@ -11218,7 +11229,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>375</v>
       </c>
@@ -11238,7 +11249,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>128</v>
       </c>
@@ -11258,7 +11269,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>320</v>
       </c>
@@ -11278,7 +11289,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>348</v>
       </c>
@@ -11298,7 +11309,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>186</v>
       </c>
@@ -11318,7 +11329,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>239</v>
       </c>
@@ -11338,7 +11349,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>68</v>
       </c>
@@ -11358,7 +11369,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>266</v>
       </c>
@@ -11378,7 +11389,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>96</v>
       </c>
@@ -11398,7 +11409,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>239</v>
       </c>
@@ -11418,7 +11429,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>239</v>
       </c>
@@ -11438,7 +11449,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>266</v>
       </c>
@@ -11458,7 +11469,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>266</v>
       </c>
@@ -11478,7 +11489,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>212</v>
       </c>
@@ -11498,7 +11509,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>266</v>
       </c>
@@ -11518,7 +11529,7 @@
         <v>445000</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>320</v>
       </c>
@@ -11538,7 +11549,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>375</v>
       </c>
@@ -11558,7 +11569,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>320</v>
       </c>
@@ -11578,7 +11589,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>128</v>
       </c>
@@ -11598,7 +11609,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>40</v>
       </c>
@@ -11618,7 +11629,7 @@
         <v>425000</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>375</v>
       </c>
@@ -11638,7 +11649,7 @@
         <v>415000</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>68</v>
       </c>
@@ -11658,7 +11669,7 @@
         <v>407500</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>96</v>
       </c>
@@ -11678,7 +11689,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>293</v>
       </c>
@@ -11698,7 +11709,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>4</v>
       </c>
@@ -11718,7 +11729,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>320</v>
       </c>
@@ -11738,7 +11749,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>186</v>
       </c>
@@ -11758,7 +11769,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>186</v>
       </c>
@@ -11778,7 +11789,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>156</v>
       </c>
@@ -11798,7 +11809,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>266</v>
       </c>
@@ -11818,7 +11829,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>40</v>
       </c>
@@ -11838,7 +11849,7 @@
         <v>375000</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>239</v>
       </c>
@@ -11858,7 +11869,7 @@
         <v>365000</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>4</v>
       </c>
@@ -11878,7 +11889,7 @@
         <v>364100</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>293</v>
       </c>
@@ -11898,7 +11909,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>348</v>
       </c>
@@ -11918,7 +11929,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>156</v>
       </c>
@@ -11938,7 +11949,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>128</v>
       </c>
@@ -11958,7 +11969,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -11978,7 +11989,7 @@
         <v>345000</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>293</v>
       </c>
@@ -11998,7 +12009,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>239</v>
       </c>
@@ -12018,7 +12029,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>40</v>
       </c>
@@ -12038,7 +12049,7 @@
         <v>337500</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>348</v>
       </c>
@@ -12058,7 +12069,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>239</v>
       </c>
@@ -12078,7 +12089,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>348</v>
       </c>
@@ -12098,7 +12109,7 @@
         <v>334500</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>348</v>
       </c>
@@ -12118,7 +12129,7 @@
         <v>331000</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>156</v>
       </c>
@@ -12138,7 +12149,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -12158,7 +12169,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -12178,7 +12189,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -12198,7 +12209,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>266</v>
       </c>
@@ -12218,7 +12229,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>96</v>
       </c>
@@ -12238,7 +12249,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>375</v>
       </c>
@@ -12258,7 +12269,7 @@
         <v>327500</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -12278,7 +12289,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>293</v>
       </c>
@@ -12298,7 +12309,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>239</v>
       </c>
@@ -12318,7 +12329,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>156</v>
       </c>
@@ -12338,7 +12349,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>40</v>
       </c>
@@ -12358,7 +12369,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>186</v>
       </c>
@@ -12378,7 +12389,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>156</v>
       </c>
@@ -12398,7 +12409,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>320</v>
       </c>
@@ -12418,7 +12429,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -12438,7 +12449,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>266</v>
       </c>
@@ -12458,7 +12469,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>96</v>
       </c>
@@ -12478,7 +12489,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>186</v>
       </c>
@@ -12498,7 +12509,7 @@
         <v>325000</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>68</v>
       </c>
@@ -12518,7 +12529,7 @@
         <v>324500</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>348</v>
       </c>
@@ -12538,7 +12549,7 @@
         <v>322000</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -12558,7 +12569,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>128</v>
       </c>
@@ -12578,7 +12589,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>266</v>
       </c>
@@ -12598,7 +12609,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>128</v>
       </c>
@@ -12618,7 +12629,7 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>348</v>
       </c>
@@ -12638,7 +12649,7 @@
         <v>316000</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>293</v>
       </c>
@@ -12658,7 +12669,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>239</v>
       </c>
@@ -12678,7 +12689,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -12698,7 +12709,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>266</v>
       </c>
@@ -12718,7 +12729,7 @@
         <v>315000</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>96</v>
       </c>
@@ -12738,7 +12749,7 @@
         <v>314400</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>96</v>
       </c>
@@ -12758,7 +12769,7 @@
         <v>314300</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>212</v>
       </c>
@@ -12778,7 +12789,7 @@
         <v>314000</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -12798,7 +12809,7 @@
         <v>314000</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>96</v>
       </c>
@@ -12818,7 +12829,7 @@
         <v>314000</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>128</v>
       </c>
@@ -12838,7 +12849,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>212</v>
       </c>
@@ -12858,7 +12869,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>128</v>
       </c>
@@ -12878,7 +12889,7 @@
         <v>313000</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>239</v>
       </c>
@@ -12898,7 +12909,7 @@
         <v>312500</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>40</v>
       </c>
@@ -12918,7 +12929,7 @@
         <v>312500</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>212</v>
       </c>
@@ -12938,7 +12949,7 @@
         <v>311000</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>293</v>
       </c>
@@ -12958,7 +12969,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>128</v>
       </c>
@@ -12978,7 +12989,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>212</v>
       </c>
@@ -12998,7 +13009,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>68</v>
       </c>
@@ -13018,7 +13029,7 @@
         <v>309500</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>293</v>
       </c>
@@ -13038,7 +13049,7 @@
         <v>309000</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>96</v>
       </c>
@@ -13058,7 +13069,7 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>348</v>
       </c>
@@ -13078,7 +13089,7 @@
         <v>307500</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>293</v>
       </c>
@@ -13098,7 +13109,7 @@
         <v>307000</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>212</v>
       </c>
@@ -13118,7 +13129,7 @@
         <v>305500</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>96</v>
       </c>
@@ -13138,7 +13149,7 @@
         <v>305500</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>293</v>
       </c>
@@ -13158,7 +13169,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>128</v>
       </c>
@@ -13178,7 +13189,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>40</v>
       </c>
@@ -13198,7 +13209,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>293</v>
       </c>
@@ -13218,7 +13229,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>156</v>
       </c>
@@ -13238,7 +13249,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>212</v>
       </c>
@@ -13258,7 +13269,7 @@
         <v>304500</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>212</v>
       </c>
@@ -13278,7 +13289,7 @@
         <v>304000</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>348</v>
       </c>
@@ -13298,7 +13309,7 @@
         <v>304000</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>212</v>
       </c>
@@ -13318,7 +13329,7 @@
         <v>303500</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>96</v>
       </c>
@@ -13338,7 +13349,7 @@
         <v>303200</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>96</v>
       </c>
@@ -13358,7 +13369,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>293</v>
       </c>
@@ -13378,7 +13389,7 @@
         <v>303000</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>239</v>
       </c>
@@ -13398,7 +13409,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>40</v>
       </c>
@@ -13418,7 +13429,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>375</v>
       </c>
@@ -13438,7 +13449,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>320</v>
       </c>
@@ -13458,7 +13469,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>40</v>
       </c>
@@ -13478,7 +13489,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>375</v>
       </c>
@@ -13498,7 +13509,7 @@
         <v>302500</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>96</v>
       </c>
@@ -13518,7 +13529,7 @@
         <v>302400</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>96</v>
       </c>
@@ -13538,7 +13549,7 @@
         <v>302200</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>96</v>
       </c>
@@ -13558,7 +13569,7 @@
         <v>302100</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>128</v>
       </c>
@@ -13578,7 +13589,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>212</v>
       </c>
@@ -13598,7 +13609,7 @@
         <v>302000</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>96</v>
       </c>
@@ -13618,7 +13629,7 @@
         <v>301100</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>212</v>
       </c>
@@ -13638,7 +13649,7 @@
         <v>301000</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>96</v>
       </c>
@@ -13658,7 +13669,7 @@
         <v>300900</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>96</v>
       </c>
@@ -13678,7 +13689,7 @@
         <v>300900</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>186</v>
       </c>
@@ -13698,7 +13709,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>266</v>
       </c>
@@ -13718,7 +13729,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>186</v>
       </c>
@@ -13738,7 +13749,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>128</v>
       </c>
@@ -13758,7 +13769,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>212</v>
       </c>
@@ -13778,7 +13789,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>186</v>
       </c>
@@ -13798,7 +13809,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -13818,7 +13829,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>186</v>
       </c>
@@ -13838,7 +13849,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>212</v>
       </c>
@@ -13858,7 +13869,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>186</v>
       </c>
@@ -13878,7 +13889,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>40</v>
       </c>
@@ -13898,7 +13909,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>320</v>
       </c>
@@ -13918,7 +13929,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>4</v>
       </c>
@@ -13938,7 +13949,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>156</v>
       </c>
@@ -13958,7 +13969,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>186</v>
       </c>
@@ -13978,7 +13989,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>293</v>
       </c>
@@ -13998,7 +14009,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>212</v>
       </c>
@@ -14018,7 +14029,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>186</v>
       </c>
@@ -14038,7 +14049,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>186</v>
       </c>
@@ -14058,7 +14069,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>375</v>
       </c>
@@ -14078,7 +14089,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>293</v>
       </c>
@@ -14099,7 +14110,7 @@
       </c>
       <c r="I359" s="1"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>68</v>
       </c>
@@ -14119,7 +14130,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>186</v>
       </c>
@@ -14139,7 +14150,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>293</v>
       </c>
@@ -14159,7 +14170,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>128</v>
       </c>
@@ -14179,7 +14190,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>186</v>
       </c>
@@ -14199,7 +14210,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>348</v>
       </c>
@@ -14219,7 +14230,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>68</v>
       </c>
@@ -14239,7 +14250,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>293</v>
       </c>
@@ -14259,7 +14270,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>186</v>
       </c>
@@ -14279,7 +14290,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>186</v>
       </c>
@@ -14299,7 +14310,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>266</v>
       </c>
@@ -14319,7 +14330,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>96</v>
       </c>
@@ -14339,7 +14350,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>186</v>
       </c>
@@ -14359,7 +14370,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>68</v>
       </c>
@@ -14379,7 +14390,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>186</v>
       </c>
@@ -14399,7 +14410,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>186</v>
       </c>
@@ -14419,7 +14430,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>320</v>
       </c>
@@ -14439,7 +14450,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>375</v>
       </c>
@@ -14459,7 +14470,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>186</v>
       </c>
@@ -14479,7 +14490,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>293</v>
       </c>
@@ -14499,7 +14510,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>212</v>
       </c>
@@ -14519,7 +14530,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>156</v>
       </c>
@@ -14539,7 +14550,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>186</v>
       </c>
@@ -14561,6 +14572,29 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F382" xr:uid="{C9298709-D07A-408F-85E8-8C67373BCAC8}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Seattle Mariners"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter val="*"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <customFilters>
+        <customFilter val="j*"/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="First Baseman"/>
+        <filter val="Second Baseman"/>
+        <filter val="Shortstop"/>
+        <filter val="Third Baseman"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F382">
       <sortCondition descending="1" ref="F2:F382"/>
     </sortState>
@@ -14575,16 +14609,129 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55BE91-C8D9-4446-81FB-9A73078D4FBD}">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="26.21875" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>982</v>
+      </c>
+      <c r="D1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" t="s">
+        <v>897</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>882</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6725000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" t="s">
+        <v>889</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>COUNTA(D2:D4)</f>
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B029CEB5-C7DD-49ED-84FE-ED2808A165F5}">
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.77734375" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="38.33203125" customWidth="1"/>
     <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
@@ -15119,7 +15266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D32"/>
   <sheetViews>
@@ -15384,7 +15531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309A82A0-9BD6-4287-9891-D15ED052D17B}">
   <dimension ref="A3:J22"/>
   <sheetViews>
@@ -15917,13 +16064,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F382"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15932,11 +16079,11 @@
     <col min="2" max="2" width="52.109375" customWidth="1"/>
     <col min="3" max="3" width="33.5546875" customWidth="1"/>
     <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15953,7 +16100,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>375</v>
       </c>
@@ -15971,7 +16118,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>68</v>
       </c>
@@ -15988,7 +16135,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -16006,7 +16153,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -16023,7 +16170,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -16041,7 +16188,7 @@
         <v>268702381</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -16058,7 +16205,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -16072,11 +16219,11 @@
         <v>21</v>
       </c>
       <c r="F8">
-        <f>COUNTIF('albb-salaries-2003 Filter'!C:C,"Anderson")</f>
+        <f>COUNTIF('albb-salaries-2003 Text To colu'!C:C,"Anderson")</f>
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>375</v>
       </c>
@@ -16093,7 +16240,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>375</v>
       </c>
@@ -16107,10 +16254,10 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -16127,7 +16274,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -16140,11 +16287,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="F12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>293</v>
       </c>
@@ -16161,7 +16308,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>348</v>
       </c>
@@ -16178,8 +16325,11 @@
         <f>AVERAGE('Filtered Data'!F:F)</f>
         <v>2276273.36</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -16193,10 +16343,10 @@
         <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -16210,7 +16360,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -16227,7 +16377,7 @@
         <v>13</v>
       </c>
       <c r="E17" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -21341,10 +21491,106 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G382" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D382">
     <sortCondition descending="1" ref="C2:C382"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21D57218-8617-4795-B0CA-DC64BAA1F73E}">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <f>COUNTA(_xlfn.UNIQUE(A2:A5))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>